--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A369091-4C94-4551-98E5-A554530BBA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E993D22-29F2-4CB1-A405-AA6049A9820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -74,9 +74,6 @@
     <t>CAP_BND</t>
   </si>
   <si>
-    <t>FX</t>
-  </si>
-  <si>
     <t>ELE_NEW_NUC_SMR</t>
   </si>
   <si>
@@ -104,26 +101,89 @@
     <t>NCAP UP</t>
   </si>
   <si>
-    <t>LO</t>
-  </si>
-  <si>
     <t>\I:</t>
   </si>
   <si>
     <t>Ograniczenia górne i FX dla 2030</t>
   </si>
   <si>
-    <t>Ograniczenia dolne (wymuszenia)</t>
-  </si>
-  <si>
     <t>Ograniczenie mocy całkowitej w roku 2040</t>
+  </si>
+  <si>
+    <t>Ograniczenia podaży kokosa</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>IMP_COCONUT</t>
+  </si>
+  <si>
+    <t>PJ/rok</t>
+  </si>
+  <si>
+    <t>MIN_CANOLA</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>zł/GJ</t>
+  </si>
+  <si>
+    <t>Prognoza ceny paliwa</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Commodity Set: Commodity Name</t>
+  </si>
+  <si>
+    <t>CANOLA</t>
+  </si>
+  <si>
+    <t>COCONUT</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BC_PL</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BC_PL_CCS</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BC_FBC</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HC_PC</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HC_IGCC</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HC_IGCC_CCS</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Other Indexes</t>
+  </si>
+  <si>
+    <t>NCAP_START</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,6 +216,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -245,22 +312,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -269,9 +334,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{BF4F5628-973B-4BD1-9D26-AFC82752D620}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,379 +689,990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="2.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="6" max="8" width="30" customWidth="1"/>
+    <col min="9" max="10" width="2.19921875" customWidth="1"/>
+    <col min="11" max="11" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>300</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <f>K6*L6/1000</f>
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="N6">
+        <f>M6</f>
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <f>N6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E7" s="5">
+        <f>M6</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="L7">
         <v>300</v>
       </c>
-      <c r="K5">
-        <f>I5*J5/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="M7">
+        <f t="shared" ref="M7:M10" si="0">K7*L7/1000</f>
+        <v>7.8</v>
+      </c>
+      <c r="N7">
+        <f>INT($K7*N$3)*$L7/1000</f>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f>INT($K7*O$3)*$L7/1000</f>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
-        <v>2025</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="D8" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E8" s="4">
+        <f>O7</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
         <v>300</v>
       </c>
-      <c r="K6">
-        <f>I6*J6/1000</f>
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <f>K6</f>
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <f>L6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2030</v>
-      </c>
-      <c r="E7" s="6">
-        <f>K6</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>26</v>
-      </c>
-      <c r="J7">
-        <v>300</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K10" si="0">I7*J7/1000</f>
-        <v>7.8</v>
-      </c>
-      <c r="L7">
-        <f>INT($I7*L$3)*$J7/1000</f>
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <f>INT($I7*M$3)*$J7/1000</f>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2035</v>
-      </c>
-      <c r="E8" s="5">
-        <f>M7</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>40</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
-      </c>
-      <c r="K8">
+      <c r="M8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L8">
-        <f>INT($I8*L$3)*$J8/1000</f>
+      <c r="N8">
+        <f>INT($K8*N$3)*$L8/1000</f>
         <v>9.6</v>
       </c>
-      <c r="M8">
-        <f>INT($I8*M$3)*$J8/1000</f>
+      <c r="O8">
+        <f>INT($K8*O$3)*$L8/1000</f>
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2040</v>
       </c>
-      <c r="E9" s="6">
-        <f>M8</f>
+      <c r="E9" s="5">
+        <f>O8</f>
         <v>14.4</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="K9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>300</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2045</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10">
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="K10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>300</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2050</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M5:M10)</f>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E13" s="9">
+        <f>M11</f>
+        <v>22.8</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
-        <f>SUM(K5:K10)</f>
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4">
         <v>2035</v>
       </c>
-      <c r="E13" s="5">
-        <f>L7</f>
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5">
         <v>2040</v>
       </c>
-      <c r="E14" s="5">
-        <f>L8</f>
-        <v>9.6</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E16" s="10">
-        <f>K11</f>
-        <v>22.8</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>14</v>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2025</v>
+      </c>
+      <c r="E31" s="14">
+        <v>127.7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2030</v>
+      </c>
+      <c r="E32" s="12">
+        <v>127.7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2035</v>
+      </c>
+      <c r="E33" s="14">
+        <v>127.7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2040</v>
+      </c>
+      <c r="E34" s="12">
+        <v>127.7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15">
+        <v>2045</v>
+      </c>
+      <c r="E35" s="14">
+        <v>127.7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2050</v>
+      </c>
+      <c r="E36" s="12">
+        <v>127.7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C38" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="15">
+        <v>2025</v>
+      </c>
+      <c r="E38" s="14">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2030</v>
+      </c>
+      <c r="E39" s="12">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2035</v>
+      </c>
+      <c r="E40" s="14">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2040</v>
+      </c>
+      <c r="E41" s="12">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C42" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2045</v>
+      </c>
+      <c r="E42" s="14">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2050</v>
+      </c>
+      <c r="E43" s="12">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>2060</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>2060</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>2060</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>2060</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>2060</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50">
+        <v>2060</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -964,6 +1691,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1158,17 +1896,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -1178,6 +1905,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1194,17 +1934,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E993D22-29F2-4CB1-A405-AA6049A9820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5977EE-7548-4CA0-B45A-F20540C3A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="51">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -77,36 +77,12 @@
     <t>ELE_NEW_NUC_SMR</t>
   </si>
   <si>
-    <t>SMRów/5lat</t>
-  </si>
-  <si>
-    <t>moc SMRa</t>
-  </si>
-  <si>
-    <t>NCAP fx</t>
-  </si>
-  <si>
-    <t>Plan Orlenu</t>
-  </si>
-  <si>
-    <t>NCAP LO</t>
-  </si>
-  <si>
-    <t>RAZEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">\I: </t>
   </si>
   <si>
-    <t>NCAP UP</t>
-  </si>
-  <si>
     <t>\I:</t>
   </si>
   <si>
-    <t>Ograniczenia górne i FX dla 2030</t>
-  </si>
-  <si>
     <t>Ograniczenie mocy całkowitej w roku 2040</t>
   </si>
   <si>
@@ -174,6 +150,42 @@
   </si>
   <si>
     <t>NCAP_START</t>
+  </si>
+  <si>
+    <t>Ograniczenia podaży rzepaku</t>
+  </si>
+  <si>
+    <t>te elektrownie zaczynają się tworzyć po naszym modelu (zastopowaliśmy je) - brak elektrowni na węgiel brunatny i kamienny</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla SMR</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-ON</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla wind on</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla wind off</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-OFF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla pv grnd</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_GRND</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_ROOF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne pv roof</t>
+  </si>
+  <si>
+    <t>Ograniczenie mocy całkowitej w roku 2050</t>
   </si>
 </sst>
 </file>
@@ -181,7 +193,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -225,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF96DBFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,16 +358,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -355,35 +370,22 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -689,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -734,23 +736,17 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1.2</v>
-      </c>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
@@ -768,50 +764,30 @@
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>300</v>
-      </c>
-      <c r="M5">
-        <f>K5*L5/1000</f>
-        <v>0</v>
-      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
@@ -831,24 +807,6 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>300</v>
-      </c>
-      <c r="M6">
-        <f>K6*L6/1000</f>
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <f>M6</f>
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <f>N6</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
@@ -861,32 +819,13 @@
         <v>2030</v>
       </c>
       <c r="E7" s="5">
-        <f>M6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="K7">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>300</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M10" si="0">K7*L7/1000</f>
-        <v>7.8</v>
-      </c>
-      <c r="N7">
-        <f>INT($K7*N$3)*$L7/1000</f>
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <f>INT($K7*O$3)*$L7/1000</f>
-        <v>9.3000000000000007</v>
-      </c>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
@@ -899,32 +838,13 @@
         <v>2035</v>
       </c>
       <c r="E8" s="4">
-        <f>O7</f>
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="K8">
-        <v>40</v>
-      </c>
-      <c r="L8">
-        <v>300</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N8">
-        <f>INT($K8*N$3)*$L8/1000</f>
-        <v>9.6</v>
-      </c>
-      <c r="O8">
-        <f>INT($K8*O$3)*$L8/1000</f>
-        <v>14.4</v>
-      </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -937,24 +857,13 @@
         <v>2040</v>
       </c>
       <c r="E9" s="5">
-        <f>O8</f>
-        <v>14.4</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>300</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
@@ -967,23 +876,13 @@
         <v>2045</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>300</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
@@ -996,35 +895,29 @@
         <v>2050</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11">
-        <f>SUM(M5:M10)</f>
-        <v>22.8</v>
-      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -1035,639 +928,1276 @@
         <v>2040</v>
       </c>
       <c r="E13" s="9">
-        <f>M11</f>
-        <v>22.8</v>
+        <v>3.6</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>2020</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E18">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E19">
+      <c r="E18" s="21">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2045</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9">
         <v>2050</v>
       </c>
-      <c r="E21">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>2020</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="E22" s="22">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
+      <c r="E24" s="21">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
+      <c r="E25" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
+      <c r="E26" s="21">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
+      <c r="E27" s="21">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
+      <c r="E28" s="21">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="21">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E31" s="22">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="21">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E34" s="21">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E35" s="21">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E36" s="21">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E37" s="21">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E38" s="21">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E40" s="22">
+        <v>12</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="21">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E43" s="21">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E44" s="21">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E45" s="21">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E46" s="21">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E47" s="21">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E49" s="9">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51" s="19">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E52" s="19">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E53" s="19">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E54" s="19">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E55" s="19">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E56" s="19">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E57" s="19">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59" s="19">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E60" s="19">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E61" s="19">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E62" s="19">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E63" s="19">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E64" s="19">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E65" s="19">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C67" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E67" s="20">
+        <v>127.7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E68" s="20">
+        <v>127.7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C69" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E69" s="20">
+        <v>127.7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E70" s="20">
+        <v>127.7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C71" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E71" s="20">
+        <v>127.7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E72" s="20">
+        <v>127.7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C74" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E74" s="20">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C75" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D75" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E75" s="20">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C76" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E76" s="20">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E77" s="20">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C78" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E78" s="20">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C79" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E79" s="20">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>2060</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82">
+        <v>2060</v>
+      </c>
+      <c r="F82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83">
+        <v>2060</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84">
+        <v>2060</v>
+      </c>
+      <c r="F84" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="15">
-        <v>2025</v>
-      </c>
-      <c r="E31" s="14">
-        <v>127.7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="13">
-        <v>2030</v>
-      </c>
-      <c r="E32" s="12">
-        <v>127.7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="15">
-        <v>2035</v>
-      </c>
-      <c r="E33" s="14">
-        <v>127.7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="13">
-        <v>2040</v>
-      </c>
-      <c r="E34" s="12">
-        <v>127.7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C35" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="15">
-        <v>2045</v>
-      </c>
-      <c r="E35" s="14">
-        <v>127.7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="13">
-        <v>2050</v>
-      </c>
-      <c r="E36" s="12">
-        <v>127.7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C38" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="15">
-        <v>2025</v>
-      </c>
-      <c r="E38" s="14">
-        <v>25</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2030</v>
-      </c>
-      <c r="E39" s="12">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="15">
-        <v>2035</v>
-      </c>
-      <c r="E40" s="14">
-        <v>25</v>
-      </c>
-      <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C41" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="13">
-        <v>2040</v>
-      </c>
-      <c r="E41" s="12">
-        <v>25</v>
-      </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="15">
-        <v>2045</v>
-      </c>
-      <c r="E42" s="14">
-        <v>25</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C43" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="13">
-        <v>2050</v>
-      </c>
-      <c r="E43" s="12">
-        <v>25</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45">
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85">
         <v>2060</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46">
+      <c r="E86">
         <v>2060</v>
       </c>
-      <c r="F46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47">
-        <v>2060</v>
-      </c>
-      <c r="F47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48">
-        <v>2060</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49">
-        <v>2060</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50">
-        <v>2060</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
+      <c r="F86" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5977EE-7548-4CA0-B45A-F20540C3A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC845A-B404-4AEE-8568-CEE2361B6225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,15 +377,15 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -742,9 +742,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -959,8 +959,8 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="21">
-        <v>2</v>
+      <c r="E15" s="20">
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -978,8 +978,8 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="21">
-        <v>2</v>
+      <c r="E16" s="20">
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
@@ -997,8 +997,8 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="21">
-        <v>2</v>
+      <c r="E17" s="20">
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>42</v>
@@ -1016,8 +1016,8 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="21">
-        <v>2</v>
+      <c r="E18" s="20">
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>42</v>
@@ -1035,8 +1035,8 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="21">
-        <v>2</v>
+      <c r="E19" s="20">
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>42</v>
@@ -1054,8 +1054,8 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="21">
-        <v>2</v>
+      <c r="E20" s="20">
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>42</v>
@@ -1086,8 +1086,8 @@
       <c r="D22" s="9">
         <v>2050</v>
       </c>
-      <c r="E22" s="22">
-        <v>12</v>
+      <c r="E22" s="21">
+        <v>60</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>42</v>
@@ -1118,7 +1118,7 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1137,7 +1137,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>2.9</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1156,7 +1156,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1175,7 +1175,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1194,7 +1194,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>2</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1213,7 +1213,7 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1245,8 +1245,8 @@
       <c r="D31" s="9">
         <v>2050</v>
       </c>
-      <c r="E31" s="22">
-        <v>16</v>
+      <c r="E31" s="21">
+        <v>13.9</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>45</v>
@@ -1277,8 +1277,8 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="21">
-        <v>2</v>
+      <c r="E33" s="20">
+        <v>10</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>47</v>
@@ -1296,8 +1296,8 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="21">
-        <v>2</v>
+      <c r="E34" s="20">
+        <v>10</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>47</v>
@@ -1315,8 +1315,8 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="21">
-        <v>2</v>
+      <c r="E35" s="20">
+        <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>47</v>
@@ -1334,8 +1334,8 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="21">
-        <v>2</v>
+      <c r="E36" s="20">
+        <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>47</v>
@@ -1353,8 +1353,8 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="21">
-        <v>2</v>
+      <c r="E37" s="20">
+        <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>47</v>
@@ -1372,8 +1372,8 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="21">
-        <v>2</v>
+      <c r="E38" s="20">
+        <v>10</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>47</v>
@@ -1404,8 +1404,8 @@
       <c r="D40" s="9">
         <v>2050</v>
       </c>
-      <c r="E40" s="22">
-        <v>12</v>
+      <c r="E40" s="21">
+        <v>60</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>47</v>
@@ -1436,7 +1436,7 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>2</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -1455,7 +1455,7 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>2</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -1474,7 +1474,7 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>2</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -1493,7 +1493,7 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>2</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -1512,7 +1512,7 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>2</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -1531,7 +1531,7 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>2</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -1597,7 +1597,7 @@
       <c r="D51">
         <v>2020</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="18">
         <v>10</v>
       </c>
       <c r="F51" t="s">
@@ -1614,7 +1614,7 @@
       <c r="D52" s="4">
         <v>2025</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="18">
         <v>20</v>
       </c>
       <c r="F52" t="s">
@@ -1631,7 +1631,7 @@
       <c r="D53" s="5">
         <v>2030</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="18">
         <v>30</v>
       </c>
       <c r="F53" t="s">
@@ -1648,7 +1648,7 @@
       <c r="D54" s="4">
         <v>2035</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="18">
         <v>40</v>
       </c>
       <c r="F54" t="s">
@@ -1665,7 +1665,7 @@
       <c r="D55" s="5">
         <v>2040</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="18">
         <v>50</v>
       </c>
       <c r="F55" t="s">
@@ -1682,7 +1682,7 @@
       <c r="D56" s="4">
         <v>2045</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <v>60</v>
       </c>
       <c r="F56" t="s">
@@ -1699,7 +1699,7 @@
       <c r="D57" s="5">
         <v>2050</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="18">
         <v>70</v>
       </c>
       <c r="F57" t="s">
@@ -1731,7 +1731,7 @@
       <c r="D59">
         <v>2020</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="18">
         <v>10</v>
       </c>
       <c r="F59" t="s">
@@ -1748,7 +1748,7 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="18">
         <v>20</v>
       </c>
       <c r="F60" t="s">
@@ -1765,7 +1765,7 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="18">
         <v>30</v>
       </c>
       <c r="F61" t="s">
@@ -1782,7 +1782,7 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="18">
         <v>40</v>
       </c>
       <c r="F62" t="s">
@@ -1799,7 +1799,7 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="18">
         <v>50</v>
       </c>
       <c r="F63" t="s">
@@ -1816,7 +1816,7 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="18">
         <v>60</v>
       </c>
       <c r="F64" t="s">
@@ -1833,7 +1833,7 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="18">
         <v>70</v>
       </c>
       <c r="F65" t="s">
@@ -1863,7 +1863,7 @@
       <c r="D67" s="12">
         <v>2025</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="19">
         <v>127.7</v>
       </c>
       <c r="F67" t="s">
@@ -1884,7 +1884,7 @@
       <c r="D68" s="11">
         <v>2030</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="19">
         <v>127.7</v>
       </c>
       <c r="F68" t="s">
@@ -1905,7 +1905,7 @@
       <c r="D69" s="12">
         <v>2035</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <v>127.7</v>
       </c>
       <c r="F69" t="s">
@@ -1926,7 +1926,7 @@
       <c r="D70" s="11">
         <v>2040</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>127.7</v>
       </c>
       <c r="F70" t="s">
@@ -1947,7 +1947,7 @@
       <c r="D71" s="12">
         <v>2045</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <v>127.7</v>
       </c>
       <c r="F71" t="s">
@@ -1968,7 +1968,7 @@
       <c r="D72" s="11">
         <v>2050</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="19">
         <v>127.7</v>
       </c>
       <c r="F72" t="s">
@@ -2001,7 +2001,7 @@
       <c r="D74" s="12">
         <v>2025</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="19">
         <v>25</v>
       </c>
       <c r="F74" t="s">
@@ -2022,7 +2022,7 @@
       <c r="D75" s="11">
         <v>2030</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="19">
         <v>25</v>
       </c>
       <c r="F75" t="s">
@@ -2043,7 +2043,7 @@
       <c r="D76" s="12">
         <v>2035</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="19">
         <v>25</v>
       </c>
       <c r="F76" t="s">
@@ -2064,7 +2064,7 @@
       <c r="D77" s="11">
         <v>2040</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="19">
         <v>25</v>
       </c>
       <c r="F77" t="s">
@@ -2085,7 +2085,7 @@
       <c r="D78" s="12">
         <v>2045</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="19">
         <v>25</v>
       </c>
       <c r="F78" t="s">
@@ -2106,7 +2106,7 @@
       <c r="D79" s="11">
         <v>2050</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="19">
         <v>25</v>
       </c>
       <c r="F79" t="s">
@@ -2212,15 +2212,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -2229,6 +2220,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2427,14 +2427,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2443,6 +2435,14 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7FFA0-FAF6-4F37-AF9F-00662EDB0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398B7971-B2EC-48E8-AC73-3517D9C17524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="42">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -101,10 +101,28 @@
     <t>MIN_CANOLA</t>
   </si>
   <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>zł/GJ</t>
+  </si>
+  <si>
+    <t>Prognoza ceny paliwa</t>
+  </si>
+  <si>
     <t>Cset_CN</t>
   </si>
   <si>
     <t>Commodity Set: Commodity Name</t>
+  </si>
+  <si>
+    <t>CANOLA</t>
+  </si>
+  <si>
+    <t>COCONUT</t>
   </si>
   <si>
     <t>ELE_NEW_BC_PL</t>
@@ -289,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -307,6 +325,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +345,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O36"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -674,15 +701,15 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -702,11 +729,11 @@
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>23</v>
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -719,13 +746,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
@@ -852,8 +879,8 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
@@ -886,8 +913,8 @@
         <v>20</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -899,7 +926,7 @@
       <c r="D15">
         <v>2020</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="18">
         <v>10</v>
       </c>
       <c r="F15" t="s">
@@ -916,7 +943,7 @@
       <c r="D16" s="4">
         <v>2025</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="18">
         <v>20</v>
       </c>
       <c r="F16" t="s">
@@ -933,7 +960,7 @@
       <c r="D17" s="5">
         <v>2030</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="18">
         <v>30</v>
       </c>
       <c r="F17" t="s">
@@ -950,7 +977,7 @@
       <c r="D18" s="4">
         <v>2035</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="18">
         <v>40</v>
       </c>
       <c r="F18" t="s">
@@ -967,7 +994,7 @@
       <c r="D19" s="5">
         <v>2040</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="18">
         <v>50</v>
       </c>
       <c r="F19" t="s">
@@ -984,7 +1011,7 @@
       <c r="D20" s="4">
         <v>2045</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="18">
         <v>60</v>
       </c>
       <c r="F20" t="s">
@@ -1001,7 +1028,7 @@
       <c r="D21" s="5">
         <v>2050</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="18">
         <v>70</v>
       </c>
       <c r="F21" t="s">
@@ -1013,15 +1040,15 @@
         <v>14</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -1033,7 +1060,7 @@
       <c r="D23">
         <v>2020</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="18">
         <v>10</v>
       </c>
       <c r="F23" t="s">
@@ -1050,7 +1077,7 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
@@ -1067,7 +1094,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="18">
         <v>30</v>
       </c>
       <c r="F25" t="s">
@@ -1084,7 +1111,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="18">
         <v>40</v>
       </c>
       <c r="F26" t="s">
@@ -1101,7 +1128,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="18">
         <v>50</v>
       </c>
       <c r="F27" t="s">
@@ -1118,7 +1145,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="18">
         <v>60</v>
       </c>
       <c r="F28" t="s">
@@ -1135,7 +1162,7 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="18">
         <v>70</v>
       </c>
       <c r="F29" t="s">
@@ -1143,83 +1170,363 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E31" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E32" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E33" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E34" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E35" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E36" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E38" s="19">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E39" s="19">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E40" s="19">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E41" s="19">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E42" s="19">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E43" s="19">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>2060</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>2060</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <v>2060</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>2060</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49">
+        <v>2060</v>
+      </c>
+      <c r="F49" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31">
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50">
         <v>2060</v>
       </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32">
-        <v>2060</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>2060</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34">
-        <v>2060</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35">
-        <v>2060</v>
-      </c>
-      <c r="F35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36">
-        <v>2060</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
+      <c r="F50" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398B7971-B2EC-48E8-AC73-3517D9C17524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BE3EB-DFA3-4875-B0AC-7244F75A8631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="51">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -159,6 +159,33 @@
   </si>
   <si>
     <t>Ograniczenia górne dla SMR</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-ON</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla wind on</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla wind off</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-OFF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla pv grnd</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_GRND</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_ROOF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne pv roof</t>
+  </si>
+  <si>
+    <t>Ograniczenie mocy całkowitej w roku 2050</t>
   </si>
 </sst>
 </file>
@@ -210,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -348,6 +381,8 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -707,9 +742,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -901,631 +936,1267 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>2020</v>
-      </c>
-      <c r="E15" s="18">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4">
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E16" s="18">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="E15" s="20">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E17" s="18">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="E16" s="20">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E18" s="18">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="E17" s="20">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E18" s="20">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E19" s="20">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E20" s="20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2045</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E22" s="21">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2050</v>
-      </c>
-      <c r="E21" s="18">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23">
-        <v>2020</v>
-      </c>
-      <c r="E23" s="18">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="18">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
+      <c r="E24" s="20">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="18">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
+      <c r="E25" s="20">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="18">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
+      <c r="E26" s="20">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="18">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
+      <c r="E27" s="20">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="18">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
+      <c r="E28" s="20">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="20">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E31" s="21">
+        <v>60</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="20">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E34" s="20">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E35" s="20">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E36" s="20">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E37" s="20">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E38" s="20">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E40" s="21">
+        <v>60</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="20">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E43" s="20">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E44" s="20">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E45" s="20">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E46" s="20">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E47" s="20">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E49" s="9">
+        <v>60</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51" s="18">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E52" s="18">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E53" s="18">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E54" s="18">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E55" s="18">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E56" s="18">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E57" s="18">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59" s="18">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="13" t="s">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E60" s="18">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E61" s="18">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E62" s="18">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E63" s="18">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E64" s="18">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E65" s="18">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14" t="s">
+      <c r="D66" s="13"/>
+      <c r="E66" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="12" t="s">
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C67" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D67" s="12">
         <v>2025</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E67" s="19">
         <v>127.7</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F67" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G67" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H67" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="11" t="s">
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D68" s="11">
         <v>2030</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E68" s="19">
         <v>127.7</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F68" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H68" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="12" t="s">
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C69" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D69" s="12">
         <v>2035</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E69" s="19">
         <v>127.7</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F69" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H69" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C34" s="11" t="s">
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D70" s="11">
         <v>2040</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E70" s="19">
         <v>127.7</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F70" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H70" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C35" s="12" t="s">
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C71" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D71" s="12">
         <v>2045</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E71" s="19">
         <v>127.7</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F71" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G71" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H71" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C36" s="11" t="s">
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C72" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D72" s="11">
         <v>2050</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E72" s="19">
         <v>127.7</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F72" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G72" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H72" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="13" t="s">
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C38" s="12" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C74" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D74" s="12">
         <v>2025</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E74" s="19">
         <v>25</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F74" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G74" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H74" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C39" s="11" t="s">
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C75" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D75" s="11">
         <v>2030</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E75" s="19">
         <v>25</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F75" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H75" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C40" s="12" t="s">
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C76" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D76" s="12">
         <v>2035</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E76" s="19">
         <v>25</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F76" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G76" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H76" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C41" s="11" t="s">
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C77" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D77" s="11">
         <v>2040</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E77" s="19">
         <v>25</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F77" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G77" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H77" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C42" s="12" t="s">
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C78" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D78" s="12">
         <v>2045</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E78" s="19">
         <v>25</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F78" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G78" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H78" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C43" s="11" t="s">
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D79" s="11">
         <v>2050</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E79" s="19">
         <v>25</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F79" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G79" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H79" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="13" t="s">
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
         <v>38</v>
       </c>
-      <c r="E45">
+      <c r="E81">
         <v>2060</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
         <v>38</v>
       </c>
-      <c r="E46">
+      <c r="E82">
         <v>2060</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
         <v>38</v>
       </c>
-      <c r="E47">
+      <c r="E83">
         <v>2060</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F83" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
         <v>38</v>
       </c>
-      <c r="E48">
+      <c r="E84">
         <v>2060</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F84" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
         <v>38</v>
       </c>
-      <c r="E49">
+      <c r="E85">
         <v>2060</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
         <v>38</v>
       </c>
-      <c r="E50">
+      <c r="E86">
         <v>2060</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F86" t="s">
         <v>35</v>
       </c>
     </row>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BE3EB-DFA3-4875-B0AC-7244F75A8631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856F982-0047-4EB2-829D-036F2835C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="52">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Ograniczenie mocy całkowitej w roku 2050</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_PWR</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O86"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -941,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -963,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -982,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1001,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1020,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1039,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1058,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1068,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1084,13 +1087,13 @@
         <v>12</v>
       </c>
       <c r="D22" s="9">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E22" s="21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1100,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -1122,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1141,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1160,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1179,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1198,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1217,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1243,13 +1246,13 @@
         <v>12</v>
       </c>
       <c r="D31" s="9">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E31" s="21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1259,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1281,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1300,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -1319,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1338,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -1357,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1376,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -1402,23 +1405,23 @@
         <v>12</v>
       </c>
       <c r="D40" s="9">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E40" s="21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -1426,7 +1429,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
@@ -1440,12 +1443,12 @@
         <v>10</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
@@ -1459,12 +1462,12 @@
         <v>10</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -1478,12 +1481,12 @@
         <v>10</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1497,12 +1500,12 @@
         <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
@@ -1516,12 +1519,12 @@
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
@@ -1535,12 +1538,12 @@
         <v>10</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="10" t="s">
         <v>15</v>
       </c>
@@ -1553,7 +1556,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="9" t="s">
         <v>6</v>
       </c>
@@ -1563,11 +1566,11 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="9">
-        <v>60</v>
+      <c r="E49" s="21">
+        <v>30</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1577,166 +1580,174 @@
         <v>14</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51">
-        <v>2020</v>
-      </c>
-      <c r="E51" s="18">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E51" s="20">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2025</v>
-      </c>
-      <c r="E52" s="18">
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E52" s="20">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E53" s="20">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E54" s="20">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E55" s="20">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E56" s="20">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E58" s="9">
+        <v>30</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="5">
-        <v>2030</v>
-      </c>
-      <c r="E53" s="18">
-        <v>30</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2035</v>
-      </c>
-      <c r="E54" s="18">
-        <v>40</v>
-      </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="5">
-        <v>2040</v>
-      </c>
-      <c r="E55" s="18">
-        <v>50</v>
-      </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2045</v>
-      </c>
-      <c r="E56" s="18">
-        <v>60</v>
-      </c>
-      <c r="F56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="5">
-        <v>2050</v>
-      </c>
-      <c r="E57" s="18">
-        <v>70</v>
-      </c>
-      <c r="F57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59">
-        <v>2020</v>
-      </c>
-      <c r="E59" s="18">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s">
-        <v>21</v>
-      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
@@ -1745,14 +1756,14 @@
       <c r="C60" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="4">
-        <v>2025</v>
+      <c r="D60">
+        <v>2020</v>
       </c>
       <c r="E60" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.35">
@@ -1762,14 +1773,14 @@
       <c r="C61" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="5">
-        <v>2030</v>
+      <c r="D61" s="4">
+        <v>2025</v>
       </c>
       <c r="E61" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
@@ -1779,14 +1790,14 @@
       <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="4">
-        <v>2035</v>
+      <c r="D62" s="5">
+        <v>2030</v>
       </c>
       <c r="E62" s="18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.35">
@@ -1796,14 +1807,14 @@
       <c r="C63" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="5">
-        <v>2040</v>
+      <c r="D63" s="4">
+        <v>2035</v>
       </c>
       <c r="E63" s="18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.35">
@@ -1813,14 +1824,14 @@
       <c r="C64" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="4">
-        <v>2045</v>
+      <c r="D64" s="5">
+        <v>2040</v>
       </c>
       <c r="E64" s="18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
@@ -1830,230 +1841,201 @@
       <c r="C65" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E65" s="18">
+        <v>60</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E66" s="18">
         <v>70</v>
       </c>
-      <c r="F65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C67" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="12">
-        <v>2025</v>
-      </c>
-      <c r="E67" s="19">
-        <v>127.7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" s="12"/>
+      <c r="B67" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="11">
-        <v>2030</v>
-      </c>
-      <c r="E68" s="19">
-        <v>127.7</v>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>2020</v>
+      </c>
+      <c r="E68" s="18">
+        <v>10</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C69" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="12">
-        <v>2035</v>
-      </c>
-      <c r="E69" s="19">
-        <v>127.7</v>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E69" s="18">
+        <v>20</v>
       </c>
       <c r="F69" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="11">
-        <v>2040</v>
-      </c>
-      <c r="E70" s="19">
-        <v>127.7</v>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E70" s="18">
+        <v>30</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C71" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="12">
-        <v>2045</v>
-      </c>
-      <c r="E71" s="19">
-        <v>127.7</v>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E71" s="18">
+        <v>40</v>
       </c>
       <c r="F71" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C72" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="11">
-        <v>2050</v>
-      </c>
-      <c r="E72" s="19">
-        <v>127.7</v>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E72" s="18">
+        <v>50</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="13" t="s">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E73" s="18">
+        <v>60</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E74" s="18">
+        <v>70</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C74" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="12">
-        <v>2025</v>
-      </c>
-      <c r="E74" s="19">
+      <c r="C75" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="12"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="11">
-        <v>2030</v>
-      </c>
-      <c r="E75" s="19">
-        <v>25</v>
-      </c>
-      <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="11"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C76" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="12">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="E76" s="19">
-        <v>25</v>
+        <v>127.7</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I76" s="12"/>
     </row>
@@ -2062,19 +2044,19 @@
         <v>22</v>
       </c>
       <c r="D77" s="11">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E77" s="19">
-        <v>25</v>
+        <v>127.7</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I77" s="11"/>
     </row>
@@ -2083,19 +2065,19 @@
         <v>22</v>
       </c>
       <c r="D78" s="12">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="E78" s="19">
-        <v>25</v>
+        <v>127.7</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I78" s="12"/>
     </row>
@@ -2104,99 +2086,279 @@
         <v>22</v>
       </c>
       <c r="D79" s="11">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E79" s="19">
-        <v>25</v>
+        <v>127.7</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C80" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E80" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C81" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E81" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C83" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E83" s="19">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80" s="13" t="s">
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E84" s="19">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C85" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E85" s="19">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E86" s="19">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C87" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E87" s="19">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E88" s="19">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C81" t="s">
+      <c r="D89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
         <v>38</v>
       </c>
-      <c r="E81">
+      <c r="E90">
         <v>2060</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
         <v>38</v>
       </c>
-      <c r="E82">
+      <c r="E91">
         <v>2060</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F91" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C83" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
         <v>38</v>
       </c>
-      <c r="E83">
+      <c r="E92">
         <v>2060</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F92" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C84" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
         <v>38</v>
       </c>
-      <c r="E84">
+      <c r="E93">
         <v>2060</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F93" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C85" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
         <v>38</v>
       </c>
-      <c r="E85">
+      <c r="E94">
         <v>2060</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F94" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C86" t="s">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
         <v>38</v>
       </c>
-      <c r="E86">
+      <c r="E95">
         <v>2060</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F95" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2212,15 +2374,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -2229,6 +2382,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2427,14 +2589,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2443,6 +2597,14 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856F982-0047-4EB2-829D-036F2835C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDE0C7-E1C8-4569-AD34-2ED62179DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="52">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -694,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1090,7 +1090,7 @@
         <v>2040</v>
       </c>
       <c r="E22" s="21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>51</v>
@@ -2360,6 +2360,17 @@
       </c>
       <c r="F95" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96">
+        <v>2060</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2374,6 +2385,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -2382,15 +2402,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2589,6 +2600,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2597,14 +2616,6 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDE0C7-E1C8-4569-AD34-2ED62179DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F0FE2-3E1C-4F97-9028-3AD25EC36CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="54">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>ELE_NEW_NUC_PWR</t>
+  </si>
+  <si>
+    <t>ELE_NEW_COCONUT</t>
+  </si>
+  <si>
+    <t>ELE_NEW_CANOLA</t>
   </si>
 </sst>
 </file>
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O96"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95:C96"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2373,6 +2379,42 @@
         <v>51</v>
       </c>
     </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98">
+        <v>2030</v>
+      </c>
+      <c r="F98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99">
+        <v>2030</v>
+      </c>
+      <c r="F99" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K3:M3"/>
@@ -2385,15 +2427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -2402,6 +2435,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2600,14 +2642,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2616,6 +2650,14 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F0FE2-3E1C-4F97-9028-3AD25EC36CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC523BFF-D5E1-4C64-93E7-D0EB23F5F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="E60" s="18">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -1783,7 +1783,7 @@
         <v>2025</v>
       </c>
       <c r="E61" s="18">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -1800,7 +1800,7 @@
         <v>2030</v>
       </c>
       <c r="E62" s="18">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -1817,7 +1817,7 @@
         <v>2035</v>
       </c>
       <c r="E63" s="18">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -1834,7 +1834,7 @@
         <v>2040</v>
       </c>
       <c r="E64" s="18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -1851,7 +1851,7 @@
         <v>2045</v>
       </c>
       <c r="E65" s="18">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         <v>2050</v>
       </c>
       <c r="E66" s="18">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -1900,7 +1900,7 @@
         <v>2020</v>
       </c>
       <c r="E68" s="18">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
@@ -1917,7 +1917,7 @@
         <v>2025</v>
       </c>
       <c r="E69" s="18">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F69" t="s">
         <v>21</v>
@@ -1934,7 +1934,7 @@
         <v>2030</v>
       </c>
       <c r="E70" s="18">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
@@ -1951,7 +1951,7 @@
         <v>2035</v>
       </c>
       <c r="E71" s="18">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F71" t="s">
         <v>21</v>
@@ -1968,7 +1968,7 @@
         <v>2040</v>
       </c>
       <c r="E72" s="18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
@@ -1985,7 +1985,7 @@
         <v>2045</v>
       </c>
       <c r="E73" s="18">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="F73" t="s">
         <v>21</v>
@@ -2002,7 +2002,7 @@
         <v>2050</v>
       </c>
       <c r="E74" s="18">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="F74" t="s">
         <v>21</v>
@@ -2427,26 +2427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2641,28 +2621,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2679,4 +2658,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC523BFF-D5E1-4C64-93E7-D0EB23F5F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F37AA8-5D3C-464C-ACB4-31B171682CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="58">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>ELE_NEW_CANOLA</t>
+  </si>
+  <si>
+    <t>Ograniczenia dolne dla kokosa</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Ograniczenie dolne mocy całkowitej w roku 2040</t>
+  </si>
+  <si>
+    <t>Ograniczenia dolne dla rzepaka</t>
   </si>
 </sst>
 </file>
@@ -700,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -950,7 +962,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -960,7 +972,7 @@
     </row>
     <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -969,17 +981,17 @@
         <v>2025</v>
       </c>
       <c r="E15" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
@@ -991,14 +1003,14 @@
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -1007,17 +1019,17 @@
         <v>2035</v>
       </c>
       <c r="E17" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>6</v>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -1026,17 +1038,17 @@
         <v>2040</v>
       </c>
       <c r="E18" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
@@ -1045,17 +1057,17 @@
         <v>2045</v>
       </c>
       <c r="E19" s="20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>6</v>
+      <c r="B20" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>7</v>
@@ -1064,10 +1076,10 @@
         <v>2050</v>
       </c>
       <c r="E20" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1077,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1087,7 +1099,7 @@
     </row>
     <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>12</v>
@@ -1096,10 +1108,10 @@
         <v>2040</v>
       </c>
       <c r="E22" s="21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1109,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -1119,7 +1131,7 @@
     </row>
     <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -1128,17 +1140,17 @@
         <v>2025</v>
       </c>
       <c r="E24" s="20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>7</v>
@@ -1147,17 +1159,17 @@
         <v>2030</v>
       </c>
       <c r="E25" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -1166,17 +1178,17 @@
         <v>2035</v>
       </c>
       <c r="E26" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
-        <v>6</v>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>7</v>
@@ -1185,17 +1197,17 @@
         <v>2040</v>
       </c>
       <c r="E27" s="20">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>7</v>
@@ -1204,17 +1216,17 @@
         <v>2045</v>
       </c>
       <c r="E28" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
-        <v>6</v>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>7</v>
@@ -1223,10 +1235,10 @@
         <v>2050</v>
       </c>
       <c r="E29" s="20">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1236,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -1246,7 +1258,7 @@
     </row>
     <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>12</v>
@@ -1255,10 +1267,10 @@
         <v>2040</v>
       </c>
       <c r="E31" s="21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1268,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1290,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1309,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -1328,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1347,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -1366,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1385,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -1395,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -1414,10 +1426,10 @@
         <v>2040</v>
       </c>
       <c r="E40" s="21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1427,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -1449,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1468,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1487,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1506,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -1525,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1544,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -1576,17 +1588,17 @@
         <v>30</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -1594,7 +1606,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
@@ -1605,15 +1617,15 @@
         <v>2025</v>
       </c>
       <c r="E51" s="20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
@@ -1624,15 +1636,15 @@
         <v>2030</v>
       </c>
       <c r="E52" s="20">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -1643,15 +1655,15 @@
         <v>2035</v>
       </c>
       <c r="E53" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>6</v>
       </c>
@@ -1662,15 +1674,15 @@
         <v>2040</v>
       </c>
       <c r="E54" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
@@ -1681,15 +1693,15 @@
         <v>2045</v>
       </c>
       <c r="E55" s="20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
         <v>6</v>
       </c>
@@ -1700,15 +1712,15 @@
         <v>2050</v>
       </c>
       <c r="E56" s="20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1733,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
         <v>6</v>
       </c>
@@ -1731,688 +1743,959 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="9">
-        <v>30</v>
+      <c r="E58" s="21">
+        <v>16.899999999999999</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60">
-        <v>2020</v>
-      </c>
-      <c r="E60" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="4">
+    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E61" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="E60" s="20">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E62" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="E61" s="20">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E63" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="E62" s="20">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E64" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="E63" s="20">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E65" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="E64" s="20">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E66" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67" s="10" t="s">
+      <c r="E65" s="20">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E67" s="21">
+        <v>30</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68">
-        <v>2020</v>
-      </c>
-      <c r="E68" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
+      <c r="C68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
+      <c r="E69" s="20">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
+      <c r="E70" s="20">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
+      <c r="E71" s="20">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
+      <c r="E72" s="20">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
+      <c r="E73" s="20">
+        <v>10</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="20">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E76" s="9">
+        <v>30</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>2020</v>
+      </c>
+      <c r="E78" s="18">
         <v>1000</v>
       </c>
-      <c r="F74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B75" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C76" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="12">
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="4">
         <v>2025</v>
       </c>
-      <c r="E76" s="19">
-        <v>127.7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I76" s="12"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C77" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="11">
+      <c r="E79" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="5">
         <v>2030</v>
       </c>
-      <c r="E77" s="19">
-        <v>127.7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C78" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="12">
+      <c r="E80" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="4">
         <v>2035</v>
       </c>
-      <c r="E78" s="19">
-        <v>127.7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="12"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C79" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="11">
+      <c r="E81" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="5">
         <v>2040</v>
       </c>
-      <c r="E79" s="19">
-        <v>127.7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C80" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="12">
+      <c r="E82" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="4">
         <v>2045</v>
       </c>
-      <c r="E80" s="19">
-        <v>127.7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C81" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="11">
-        <v>2050</v>
-      </c>
-      <c r="E81" s="19">
-        <v>127.7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C83" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="12">
-        <v>2025</v>
-      </c>
-      <c r="E83" s="19">
-        <v>25</v>
+      <c r="E83" s="18">
+        <v>1000</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C84" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="11">
-        <v>2030</v>
-      </c>
-      <c r="E84" s="19">
-        <v>25</v>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E84" s="18">
+        <v>1000</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="11" t="s">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E87" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E88" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E89" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E90" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E91" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E92" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E94" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H94" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C95" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E95" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C96" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E96" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E97" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C98" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E98" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E99" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C101" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E101" s="19">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C85" s="12" t="s">
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D102" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E102" s="19">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C103" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="12">
         <v>2035</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E103" s="19">
         <v>25</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F103" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="G103" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="H103" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="12"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C86" s="11" t="s">
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D104" s="11">
         <v>2040</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E104" s="19">
         <v>25</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F104" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G104" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H86" s="12" t="s">
+      <c r="H104" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C87" s="12" t="s">
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D105" s="12">
         <v>2045</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E105" s="19">
         <v>25</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F105" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G105" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H105" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="12"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C88" s="11" t="s">
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D106" s="11">
         <v>2050</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E106" s="19">
         <v>25</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F106" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G106" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="H106" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B89" s="13" t="s">
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C90" t="s">
+      <c r="D107" s="13"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
         <v>38</v>
       </c>
-      <c r="E90">
+      <c r="E108">
         <v>2060</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F108" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C91" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
         <v>38</v>
       </c>
-      <c r="E91">
+      <c r="E109">
         <v>2060</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F109" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C92" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
         <v>38</v>
       </c>
-      <c r="E92">
+      <c r="E110">
         <v>2060</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F110" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C93" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
         <v>38</v>
       </c>
-      <c r="E93">
+      <c r="E111">
         <v>2060</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F111" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
         <v>38</v>
       </c>
-      <c r="E94">
+      <c r="E112">
         <v>2060</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F112" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C95" t="s">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
         <v>38</v>
       </c>
-      <c r="E95">
+      <c r="E113">
         <v>2060</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F113" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C96" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96">
-        <v>2060</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B97" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C98" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98">
-        <v>2030</v>
-      </c>
-      <c r="F98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C99" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99">
-        <v>2030</v>
-      </c>
-      <c r="F99" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2427,6 +2710,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2621,15 +2913,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2642,6 +2925,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2660,14 +2951,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F37AA8-5D3C-464C-ACB4-31B171682CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9CF16-D5B1-44EA-981D-F2626D1C3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="59">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Ograniczenia dolne dla rzepaka</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla jądrówki</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1280,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1566,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -1725,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -2710,12 +2713,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2914,20 +2919,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2952,14 +2960,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9CF16-D5B1-44EA-981D-F2626D1C3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC930D7-4454-440D-8ECA-22D0EFA336DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="59">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,13 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,8 +399,8 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,23 +711,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.53125" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1328125" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="8" width="30" customWidth="1"/>
-    <col min="9" max="10" width="2.19921875" customWidth="1"/>
-    <col min="11" max="11" width="12.46484375" customWidth="1"/>
+    <col min="9" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -744,7 +738,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -772,7 +766,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -800,7 +794,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
@@ -813,7 +807,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -832,7 +826,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -851,7 +845,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -870,7 +864,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -889,7 +883,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -908,7 +902,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -928,7 +922,7 @@
       <c r="H11" s="5"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -941,7 +935,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -960,7 +954,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
@@ -973,7 +967,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
@@ -992,7 +986,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1005,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
@@ -1030,7 +1024,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1049,7 +1043,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1068,7 +1062,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -1079,7 +1073,7 @@
         <v>2050</v>
       </c>
       <c r="E20" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>53</v>
@@ -1087,7 +1081,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1094,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>2040</v>
       </c>
       <c r="E22" s="21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>53</v>
@@ -1119,7 +1113,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1126,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1143,7 +1137,7 @@
         <v>2025</v>
       </c>
       <c r="E24" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>52</v>
@@ -1151,7 +1145,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1170,7 +1164,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1183,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1208,7 +1202,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
@@ -1227,7 +1221,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1238,7 +1232,7 @@
         <v>2050</v>
       </c>
       <c r="E29" s="20">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
@@ -1246,7 +1240,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1253,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>2040</v>
       </c>
       <c r="E31" s="21">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1278,7 +1272,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1285,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1296,7 @@
         <v>2025</v>
       </c>
       <c r="E33" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>51</v>
@@ -1310,7 +1304,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1315,7 @@
         <v>2030</v>
       </c>
       <c r="E34" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>51</v>
@@ -1329,7 +1323,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1334,7 @@
         <v>2035</v>
       </c>
       <c r="E35" s="20">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>51</v>
@@ -1348,7 +1342,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>2040</v>
       </c>
       <c r="E36" s="20">
-        <v>10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>51</v>
@@ -1367,7 +1361,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -1378,7 +1372,7 @@
         <v>2045</v>
       </c>
       <c r="E37" s="20">
-        <v>10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>51</v>
@@ -1386,7 +1380,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1391,7 @@
         <v>2050</v>
       </c>
       <c r="E38" s="20">
-        <v>10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>51</v>
@@ -1405,7 +1399,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1412,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1423,7 @@
         <v>2040</v>
       </c>
       <c r="E40" s="21">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>51</v>
@@ -1437,7 +1431,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1444,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1455,7 @@
         <v>2025</v>
       </c>
       <c r="E42" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1469,7 +1463,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
@@ -1480,7 +1474,7 @@
         <v>2030</v>
       </c>
       <c r="E43" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1488,7 +1482,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1493,7 @@
         <v>2035</v>
       </c>
       <c r="E44" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1507,7 +1501,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>2040</v>
       </c>
       <c r="E45" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1526,7 +1520,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1539,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1550,7 @@
         <v>2050</v>
       </c>
       <c r="E47" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1564,7 +1558,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1571,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1582,7 @@
         <v>2040</v>
       </c>
       <c r="E49" s="21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1596,7 +1590,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
@@ -1609,7 +1603,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1622,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1641,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1660,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1679,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1698,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1717,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1736,7 +1730,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1749,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1762,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1773,7 @@
         <v>2025</v>
       </c>
       <c r="E60" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1787,7 +1781,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>2030</v>
       </c>
       <c r="E61" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1806,7 +1800,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -1817,7 +1811,7 @@
         <v>2035</v>
       </c>
       <c r="E62" s="20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1825,7 +1819,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>2040</v>
       </c>
       <c r="E63" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1844,7 +1838,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1849,7 @@
         <v>2045</v>
       </c>
       <c r="E64" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1863,7 +1857,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
         <v>6</v>
       </c>
@@ -1874,7 +1868,7 @@
         <v>2050</v>
       </c>
       <c r="E65" s="20">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1882,7 +1876,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +1889,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1900,7 @@
         <v>2040</v>
       </c>
       <c r="E67" s="21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>47</v>
@@ -1914,7 +1908,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -1927,7 +1921,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
@@ -1938,7 +1932,7 @@
         <v>2025</v>
       </c>
       <c r="E69" s="20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1946,7 +1940,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +1951,7 @@
         <v>2030</v>
       </c>
       <c r="E70" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1965,7 +1959,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -1976,7 +1970,7 @@
         <v>2035</v>
       </c>
       <c r="E71" s="20">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1984,7 +1978,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>2040</v>
       </c>
       <c r="E72" s="20">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -2003,7 +1997,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2008,7 @@
         <v>2045</v>
       </c>
       <c r="E73" s="20">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2022,7 +2016,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>6</v>
       </c>
@@ -2033,7 +2027,7 @@
         <v>2050</v>
       </c>
       <c r="E74" s="20">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2041,7 +2035,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>15</v>
       </c>
@@ -2054,7 +2048,7 @@
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>6</v>
       </c>
@@ -2065,7 +2059,7 @@
         <v>2040</v>
       </c>
       <c r="E76" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>48</v>
@@ -2073,7 +2067,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
         <v>14</v>
       </c>
@@ -2088,7 +2082,7 @@
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>6</v>
       </c>
@@ -2099,13 +2093,13 @@
         <v>2020</v>
       </c>
       <c r="E78" s="18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>6</v>
       </c>
@@ -2116,13 +2110,13 @@
         <v>2025</v>
       </c>
       <c r="E79" s="18">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>6</v>
       </c>
@@ -2133,13 +2127,13 @@
         <v>2030</v>
       </c>
       <c r="E80" s="18">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>6</v>
       </c>
@@ -2150,13 +2144,13 @@
         <v>2035</v>
       </c>
       <c r="E81" s="18">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>6</v>
       </c>
@@ -2167,13 +2161,13 @@
         <v>2040</v>
       </c>
       <c r="E82" s="18">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -2184,13 +2178,13 @@
         <v>2045</v>
       </c>
       <c r="E83" s="18">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -2201,13 +2195,13 @@
         <v>2050</v>
       </c>
       <c r="E84" s="18">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2216,7 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -2233,13 +2227,13 @@
         <v>2020</v>
       </c>
       <c r="E86" s="18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2250,13 +2244,13 @@
         <v>2025</v>
       </c>
       <c r="E87" s="18">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2267,13 +2261,13 @@
         <v>2030</v>
       </c>
       <c r="E88" s="18">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2284,13 +2278,13 @@
         <v>2035</v>
       </c>
       <c r="E89" s="18">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2301,13 +2295,13 @@
         <v>2040</v>
       </c>
       <c r="E90" s="18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F90" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2318,13 +2312,13 @@
         <v>2045</v>
       </c>
       <c r="E91" s="18">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="F91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>6</v>
       </c>
@@ -2335,13 +2329,13 @@
         <v>2050</v>
       </c>
       <c r="E92" s="18">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2351,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C94" s="12" t="s">
         <v>22</v>
       </c>
@@ -2365,7 +2359,7 @@
         <v>2025</v>
       </c>
       <c r="E94" s="19">
-        <v>127.7</v>
+        <v>141.68</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2378,7 +2372,7 @@
       </c>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C95" s="11" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2380,7 @@
         <v>2030</v>
       </c>
       <c r="E95" s="19">
-        <v>127.7</v>
+        <v>123.2</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2399,7 +2393,7 @@
       </c>
       <c r="I95" s="11"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C96" s="12" t="s">
         <v>22</v>
       </c>
@@ -2407,7 +2401,7 @@
         <v>2035</v>
       </c>
       <c r="E96" s="19">
-        <v>127.7</v>
+        <v>115.5</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2420,7 +2414,7 @@
       </c>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C97" s="11" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>2040</v>
       </c>
       <c r="E97" s="19">
-        <v>127.7</v>
+        <v>107.8</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2441,7 +2435,7 @@
       </c>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C98" s="12" t="s">
         <v>22</v>
       </c>
@@ -2449,7 +2443,7 @@
         <v>2045</v>
       </c>
       <c r="E98" s="19">
-        <v>127.7</v>
+        <v>101.64</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2462,7 +2456,7 @@
       </c>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C99" s="11" t="s">
         <v>22</v>
       </c>
@@ -2470,7 +2464,7 @@
         <v>2050</v>
       </c>
       <c r="E99" s="19">
-        <v>127.7</v>
+        <v>96.25</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2483,19 +2477,23 @@
       </c>
       <c r="I99" s="11"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
+      <c r="E100" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C101" s="12" t="s">
         <v>22</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>2025</v>
       </c>
       <c r="E101" s="19">
-        <v>25</v>
+        <v>765.45</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2516,7 +2514,7 @@
       </c>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>2030</v>
       </c>
       <c r="E102" s="19">
-        <v>25</v>
+        <v>800.87</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2537,7 +2535,7 @@
       </c>
       <c r="I102" s="11"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C103" s="12" t="s">
         <v>22</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>2035</v>
       </c>
       <c r="E103" s="19">
-        <v>25</v>
+        <v>840.91</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2558,7 +2556,7 @@
       </c>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>2040</v>
       </c>
       <c r="E104" s="19">
-        <v>25</v>
+        <v>881.29</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2579,7 +2577,7 @@
       </c>
       <c r="I104" s="11"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>2045</v>
       </c>
       <c r="E105" s="19">
-        <v>25</v>
+        <v>921.96</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2600,7 +2598,7 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>2050</v>
       </c>
       <c r="E106" s="19">
-        <v>25</v>
+        <v>952.4</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2621,7 +2619,7 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2633,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2646,7 +2644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>38</v>
       </c>
@@ -2657,7 +2655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>38</v>
       </c>
@@ -2668,7 +2666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>38</v>
       </c>
@@ -2679,7 +2677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>38</v>
       </c>
@@ -2690,7 +2688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>38</v>
       </c>
@@ -2713,14 +2711,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2919,23 +2915,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2960,9 +2953,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>